--- a/xlsx/研究_intext.xlsx
+++ b/xlsx/研究_intext.xlsx
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8F%A4%E6%B3%95%E8%AA%9E</t>
   </si>
   <si>
-    <t>中古法語</t>
-  </si>
-  <si>
-    <t>政策_政策_智庫_研究</t>
+    <t>中古法语</t>
+  </si>
+  <si>
+    <t>政策_政策_智库_研究</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%BB%E8%BE%91</t>
@@ -47,55 +47,55 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E5%8B%95%E7%A0%94%E7%A9%B6</t>
   </si>
   <si>
-    <t>行動研究</t>
+    <t>行动研究</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%A2%E8%AB%87</t>
   </si>
   <si>
-    <t>面談</t>
+    <t>面谈</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%B8%E6%96%B9%E6%B3%95</t>
   </si>
   <si>
-    <t>科學方法</t>
+    <t>科学方法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%99%E7%9B%B2</t>
   </si>
   <si>
-    <t>雙盲</t>
+    <t>双盲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8E%A7%E5%88%B6%E7%B5%84</t>
   </si>
   <si>
-    <t>控制組</t>
+    <t>控制组</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%A6%E9%A9%97%E7%B5%84</t>
   </si>
   <si>
-    <t>實驗組</t>
+    <t>实验组</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%81%E8%A1%8C%E7%97%85%E5%AD%B8</t>
   </si>
   <si>
-    <t>流行病學</t>
+    <t>流行病学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%A6%E9%A9%97</t>
   </si>
   <si>
-    <t>實驗</t>
+    <t>实验</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -107,7 +107,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB%E6%AD%B7%E5%8F%B2%E8%BE%AD%E5%85%B8</t>
   </si>
   <si>
-    <t>瑞士歷史辭典</t>
+    <t>瑞士历史辞典</t>
   </si>
 </sst>
 </file>
